--- a/计分表/驼峰航线小学组计分表.xlsx
+++ b/计分表/驼峰航线小学组计分表.xlsx
@@ -1,48 +1,494 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$15</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+  <si>
+    <t>"驼峰航线"小学组-计分表</t>
+  </si>
+  <si>
+    <t>赛程：</t>
+  </si>
+  <si>
+    <t>4分钟</t>
+  </si>
+  <si>
+    <t>参赛队伍名称：</t>
+  </si>
+  <si>
+    <t>侦察机-评分标准</t>
+  </si>
+  <si>
+    <t>运输机-评分标准</t>
+  </si>
+  <si>
+    <t>评分标准</t>
+  </si>
+  <si>
+    <t>分值</t>
+  </si>
+  <si>
+    <t>是否完成</t>
+  </si>
+  <si>
+    <t>1.起飞且符合高度要求(1米以上)</t>
+  </si>
+  <si>
+    <t>5分</t>
+  </si>
+  <si>
+    <t>1.参赛队伍使用无线电告知方式（如果未告知裁判该项分不加）</t>
+  </si>
+  <si>
+    <t>2.飞行过程稳定没有超出地图边界</t>
+  </si>
+  <si>
+    <t>3.报告裁判无人机投放点与物资类型(少报不得分)</t>
+  </si>
+  <si>
+    <t>10分</t>
+  </si>
+  <si>
+    <t>4.正常降落机场区域</t>
+  </si>
+  <si>
+    <t>4.正确投放标识区域</t>
+  </si>
+  <si>
+    <t>5.精确降落机场标识点</t>
+  </si>
+  <si>
+    <t>5.精确投放标识区域</t>
+  </si>
+  <si>
+    <t>任务时长</t>
+  </si>
+  <si>
+    <t>参赛队长签字：</t>
+  </si>
+  <si>
+    <t>裁判签字：</t>
+  </si>
+  <si>
+    <t>备注:</t>
+  </si>
+  <si>
+    <t>参赛队伍成绩确认(队长签字)：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+注：如果参赛队伍由于设备故障等原因提前结束比赛任务时长可不做记录，
+最终分值为已完成任务分值总和，如果参赛队伍达到评分标准在是否完成下面打上对勾即可。
+零分判定准则：参赛队伍任务超时|参赛队伍打架斗殴|违反赛事精神等。
+裁判不得以任务未完成直接判定零分只要参赛队伍能够在比赛要求的时间内处理设备故障均计入分数。
+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -50,21 +496,407 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1187,281 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1" spans="1:6">
+      <c r="A6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" ht="60" customHeight="1" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="60" customHeight="1" spans="1:6">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="60" customHeight="1" spans="1:6">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" ht="60" customHeight="1" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" ht="60" customHeight="1" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" ht="60" customHeight="1" spans="1:6">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="1:6">
+      <c r="A13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:6">
+      <c r="A14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" ht="79" customHeight="1" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" ht="54" customHeight="1"/>
+    <row r="17" ht="54" customHeight="1"/>
+    <row r="18" ht="54" customHeight="1"/>
+    <row r="19" ht="54" customHeight="1"/>
+    <row r="20" ht="54" customHeight="1"/>
+    <row r="21" ht="54" customHeight="1"/>
+    <row r="22" ht="54" customHeight="1"/>
+    <row r="23" ht="54" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.550694444444444" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>